--- a/data/trans_dic/P16B08-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -685,7 +686,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>69,27; 100,0</t>
+          <t>69,4; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -695,7 +696,7 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>61,78; 100,0</t>
+          <t>59,83; 100,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -705,27 +706,27 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>57,26; 94,88</t>
+          <t>59,7; 94,74</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>52,77; 100,0</t>
+          <t>60,06; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>78,79; 100,0</t>
+          <t>77,25; 100,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>76,89; 97,21</t>
+          <t>75,41; 97,2</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>68,86; 97,02</t>
+          <t>65,7; 96,99</t>
         </is>
       </c>
     </row>
@@ -810,12 +811,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>84,78; 100,0</t>
+          <t>81,17; 100,0</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,21; 100,0</t>
+          <t>73,79; 100,0</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -825,12 +826,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>82,28; 100,0</t>
+          <t>83,45; 100,0</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>86,57; 100,0</t>
+          <t>87,17; 100,0</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -930,7 +931,7 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>68,97; 100,0</t>
+          <t>61,84; 100,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
@@ -945,7 +946,7 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>80,46; 100,0</t>
+          <t>80,89; 100,0</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1016,7 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>63,37; 100,0</t>
+          <t>62,19; 100,0</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -1025,12 +1026,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>77,15; 100,0</t>
+          <t>76,65; 100,0</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>83,87; 100,0</t>
+          <t>83,59; 100,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1045,7 +1046,7 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>78,98; 98,32</t>
+          <t>78,9; 98,34</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1055,7 +1056,7 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>91,94; 100,0</t>
+          <t>91,87; 100,0</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1126,7 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>31,32; 100,0</t>
+          <t>30,97; 100,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -1145,27 +1146,27 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>80,06; 100,0</t>
+          <t>79,9; 100,0</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>80,75; 100,0</t>
+          <t>83,14; 100,0</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>77,12; 100,0</t>
+          <t>78,98; 100,0</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>86,69; 100,0</t>
+          <t>88,71; 100,0</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>89,02; 100,0</t>
+          <t>87,37; 100,0</t>
         </is>
       </c>
     </row>
@@ -1245,7 +1246,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>43,76; 100,0</t>
+          <t>44,26; 100,0</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1260,7 +1261,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>90,72; 100,0</t>
+          <t>90,57; 100,0</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1275,7 +1276,7 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>83,59; 98,52</t>
+          <t>84,74; 98,57</t>
         </is>
       </c>
     </row>
@@ -1345,7 +1346,7 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>79,66; 97,04</t>
+          <t>78,89; 97,09</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1355,37 +1356,37 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>85,85; 97,19</t>
+          <t>87,54; 97,47</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>95,19; 100,0</t>
+          <t>95,29; 100,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>93,61; 98,89</t>
+          <t>93,07; 98,9</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>92,28; 98,97</t>
+          <t>93,21; 98,89</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>90,81; 98,16</t>
+          <t>91,69; 98,26</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>95,94; 99,07</t>
+          <t>95,98; 99,34</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>92,27; 97,67</t>
+          <t>92,52; 97,83</t>
         </is>
       </c>
     </row>
@@ -1412,4 +1413,1291 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyos medicamentos para la alergia fueron recetados por el médico</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17215</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>16638</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>13356</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>7817</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>14550</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>14669</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25032</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>31188</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28026</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>13253; 19098</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>14885; 16638</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>9226; 15421</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6195; 7817</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>10560; 16756</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>9902; 16488</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>20791; 26915</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>25884; 33365</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20964; 30948</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19348</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>13737</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>24493</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>22392</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>20440</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>26498</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>41740</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34178</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>863; 2004</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>17192; 19348</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>11884; 13737</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>20597; 25374</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17310; 23457</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>18591; 20440</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>22847; 27379</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>37314; 42805</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>32260; 34178</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13421</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20299</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>13139</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>3021</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13211</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>12680</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>16442</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>33510</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>25820</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>11611; 13421</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>18161; 20299</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11233; 13139</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1679; 3021</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>11429; 13211</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>8451; 13665</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>14610; 16442</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31449; 33510</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21683; 26805</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>24947</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27655</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24738</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>28955</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>55311</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>49889</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>53901</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>82966</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>74626</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>17842; 28688</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>25630; 27655</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>20476; 26715</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>25004; 29913</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>53276; 55311</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>47902; 49889</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>46234; 57630</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>80902; 82966</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>70379; 76603</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>4764</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>14940</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>20377</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>19415</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>28642</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>36124</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>24179</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>43582</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>56501</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>1807; 5835</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>13057; 14940</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>18533; 20377</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>17476; 19415</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>24454; 30606</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>31792; 38240</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>19943; 25250</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>40405; 45546</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>51212; 58617</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>7176</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>15863</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>10265</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>46736</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>53854</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>48982</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>53912</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>69717</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>59247</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>5687; 7176</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>13986; 15863</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>5676; 12824</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>44835; 46736</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>51873; 53854</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>45182; 49887</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>52037; 53912</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>67725; 69717</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>53143; 61813</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>69528</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>114743</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>95612</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>130438</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>187959</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>182784</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>199965</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>302703</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>278396</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>60132; 74004</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>112648; 114743</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>89476; 99628</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>126046; 132277</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>180665; 191997</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>175796; 186521</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>191171; 204862</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>296439; 306820</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>269067; 284525</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P16B08-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16B08-Clase-trans_dic.xlsx
@@ -1173,7 +1173,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2354,7 +2354,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
